--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1054118.661266118</v>
+        <v>1052564.43499081</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>171.1090752334387</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>133.9295731471389</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>147.9243747652691</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -870,19 +870,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>237.7867217506696</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>174.681103313422</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,10 +910,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>344.8993515263621</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.4375612755787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>164.540418312084</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.9829460293907</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>71.35748212783108</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1144,10 +1144,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>141.6634373833999</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>399.6065420822458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>287.8321451575666</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.6996499656774</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>374.0582434582155</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>357.5589769327692</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>139.6099492230987</v>
       </c>
       <c r="I13" t="n">
-        <v>89.47480529767448</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S13" t="n">
-        <v>4.763647247960771</v>
+        <v>163.0465808800861</v>
       </c>
       <c r="T13" t="n">
         <v>239.58516943501</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>256.7405980242739</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,16 +1615,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>96.50396608463997</v>
       </c>
       <c r="G14" t="n">
-        <v>399.6065420822458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.8321451575666</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.6996499656774</v>
       </c>
       <c r="U14" t="n">
-        <v>26.38119680054834</v>
+        <v>255.7162299332158</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.5192831610122</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.2852801475434</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I16" t="n">
         <v>89.47480529767448</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.0465808800861</v>
+        <v>4.763647247961221</v>
       </c>
       <c r="T16" t="n">
         <v>239.58516943501</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924949</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>399.6065420822458</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026559</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2019,10 +2019,10 @@
         <v>164.2852801475434</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>17.30579238447801</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>163.0465808800861</v>
       </c>
       <c r="T19" t="n">
-        <v>147.203842270572</v>
+        <v>239.58516943501</v>
       </c>
       <c r="U19" t="n">
         <v>277.3657429313624</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>287.8321451575666</v>
       </c>
       <c r="I20" t="n">
-        <v>7.980229622791468</v>
+        <v>7.980229622790294</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>215.6996499656774</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7162299332158</v>
+        <v>255.7162299332153</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>49.18624980711481</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.2852801475395</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>89.47480529767448</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>163.0465808800861</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>59.52082439399815</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>76.50853458984646</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>163.0465808800861</v>
+        <v>147.7569304242151</v>
       </c>
       <c r="T25" t="n">
         <v>239.58516943501</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>150.5461182859745</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.2852801475434</v>
       </c>
       <c r="H28" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>89.47480529767448</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.58516943501</v>
+        <v>114.534768121155</v>
       </c>
       <c r="U28" t="n">
         <v>277.3657429313624</v>
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>146.3939546886261</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2967,7 +2967,7 @@
         <v>164.2852801475434</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.80182088864831</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>70.80182088864829</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>163.0465808800861</v>
       </c>
       <c r="T34" t="n">
-        <v>147.203842270572</v>
+        <v>239.58516943501</v>
       </c>
       <c r="U34" t="n">
         <v>277.3657429313624</v>
@@ -3435,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>79.00052858620606</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.2852801475434</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>16.65070961872537</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>89.47480529767448</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S37" t="n">
         <v>163.0465808800861</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924949</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>399.6065420822458</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>5.620689947647687</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.5461237886712</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.2852801475434</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.47480529767448</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S40" t="n">
         <v>163.0465808800861</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.58516943501</v>
       </c>
       <c r="U40" t="n">
         <v>277.3657429313624</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>224.2955189791426</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>350.3288518781922</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>370.4862153782333</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.6996499656774</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7162299332158</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>143.4764288491869</v>
+        <v>164.2852801475434</v>
       </c>
       <c r="H43" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>89.47480529767448</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>163.0465808800861</v>
@@ -3960,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>256.8142293333416</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.8321451575666</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>87.6200780511319</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.6996499656774</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>235.8159179465885</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>367.0764014199983</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.89102836653883</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>245.4371521552138</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1820.815201993657</v>
+        <v>292.5227755086505</v>
       </c>
       <c r="C2" t="n">
-        <v>1797.954876047361</v>
+        <v>269.6624495623547</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.117426316614</v>
+        <v>250.4102327877591</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.140486464472</v>
+        <v>228.4736969760207</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0163046538721</v>
+        <v>207.389919205825</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>207.0912608356777</v>
       </c>
       <c r="H2" t="n">
         <v>71.80886371735554</v>
@@ -4336,16 +4336,16 @@
         <v>36.91199246082674</v>
       </c>
       <c r="L2" t="n">
-        <v>475.942330131692</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M2" t="n">
-        <v>932.7282368344229</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P2" t="n">
         <v>1389.514143537154</v>
@@ -4357,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>713.6680058048862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.623162244782</v>
+        <v>712.3711398001806</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>596.152359287123</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="C4" t="n">
-        <v>596.152359287123</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="D4" t="n">
-        <v>596.152359287123</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="E4" t="n">
-        <v>596.152359287123</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F4" t="n">
         <v>446.7337989181643</v>
@@ -4491,22 +4491,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L4" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U4" t="n">
-        <v>1395.280127060776</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V4" t="n">
-        <v>1113.568659668805</v>
+        <v>911.7521714577169</v>
       </c>
       <c r="W4" t="n">
-        <v>838.7162558413179</v>
+        <v>636.8997676302299</v>
       </c>
       <c r="X4" t="n">
-        <v>596.152359287123</v>
+        <v>636.8997676302299</v>
       </c>
       <c r="Y4" t="n">
-        <v>596.152359287123</v>
+        <v>636.8997676302299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1416.774797953252</v>
+        <v>1369.361590511541</v>
       </c>
       <c r="C5" t="n">
-        <v>1240.329239050806</v>
+        <v>1346.501264565245</v>
       </c>
       <c r="D5" t="n">
-        <v>817.0366182358061</v>
+        <v>923.2086437502451</v>
       </c>
       <c r="E5" t="n">
-        <v>391.0596783836638</v>
+        <v>497.2317038981026</v>
       </c>
       <c r="F5" t="n">
-        <v>369.9759006134681</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
         <v>71.80886371735554</v>
@@ -4567,52 +4567,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344229</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>1733.552734122628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.623162244782</v>
+        <v>1385.169550762667</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6094817404178</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="M6" t="n">
-        <v>765.3953884431487</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253902</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>976.296846493218</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>804.324283372134</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>641.0075104989047</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>474.7993046517582</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.462815205284</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V7" t="n">
-        <v>1166.462815205284</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W7" t="n">
-        <v>1166.462815205284</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X7" t="n">
-        <v>1166.462815205284</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>1166.462815205284</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.189564997102</v>
+        <v>504.3266957455847</v>
       </c>
       <c r="C8" t="n">
-        <v>1240.329239050806</v>
+        <v>432.2484309699978</v>
       </c>
       <c r="D8" t="n">
-        <v>1221.07702227621</v>
+        <v>412.9962141954022</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.140486464472</v>
+        <v>391.0596783836638</v>
       </c>
       <c r="F8" t="n">
-        <v>774.0163046538721</v>
+        <v>369.9759006134681</v>
       </c>
       <c r="G8" t="n">
         <v>369.6772422433207</v>
@@ -4804,22 +4804,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P8" t="n">
         <v>1728.043288159434</v>
@@ -4831,25 +4831,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X8" t="n">
-        <v>1616.994457294121</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.697591289416</v>
+        <v>924.1750600371148</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>393.2225928484407</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>850.0084995511716</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511716</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511716</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O9" t="n">
         <v>850.0084995511716</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.2115053602647</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C10" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D10" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E10" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
         <v>36.91199246082674</v>
@@ -4965,49 +4965,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P10" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U10" t="n">
-        <v>1702.505241845983</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V10" t="n">
-        <v>1420.793774454012</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.941370626525</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X10" t="n">
-        <v>903.3774740723304</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y10" t="n">
-        <v>903.3774740723304</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1325.083512174788</v>
+        <v>1597.949951899336</v>
       </c>
       <c r="C11" t="n">
-        <v>1325.083512174788</v>
+        <v>1171.049221912636</v>
       </c>
       <c r="D11" t="n">
-        <v>901.7908913597887</v>
+        <v>1171.049221912636</v>
       </c>
       <c r="E11" t="n">
-        <v>475.8139515076463</v>
+        <v>745.0722820604934</v>
       </c>
       <c r="F11" t="n">
-        <v>50.68976969704649</v>
+        <v>745.0722820604934</v>
       </c>
       <c r="G11" t="n">
-        <v>50.68976969704649</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="H11" t="n">
-        <v>50.68976969704649</v>
+        <v>50.68976969704651</v>
       </c>
       <c r="I11" t="n">
-        <v>50.68976969704649</v>
+        <v>50.68976969704651</v>
       </c>
       <c r="J11" t="n">
-        <v>471.1973605234742</v>
+        <v>79.46814181584804</v>
       </c>
       <c r="K11" t="n">
-        <v>853.1220967176409</v>
+        <v>130.8444708135201</v>
       </c>
       <c r="L11" t="n">
-        <v>1480.407996718591</v>
+        <v>200.5778862428204</v>
       </c>
       <c r="M11" t="n">
-        <v>1563.146141159048</v>
+        <v>283.3160306832773</v>
       </c>
       <c r="N11" t="n">
-        <v>1647.972819138179</v>
+        <v>910.6019306842278</v>
       </c>
       <c r="O11" t="n">
-        <v>2275.258719139129</v>
+        <v>1537.887830685178</v>
       </c>
       <c r="P11" t="n">
-        <v>2336.16584669434</v>
+        <v>1996.555597609356</v>
       </c>
       <c r="Q11" t="n">
-        <v>2374.076491626779</v>
+        <v>2526.315149904531</v>
       </c>
       <c r="R11" t="n">
-        <v>2534.488484852324</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="S11" t="n">
-        <v>2534.488484852324</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="T11" t="n">
-        <v>2534.488484852324</v>
+        <v>2316.61005054356</v>
       </c>
       <c r="U11" t="n">
-        <v>2534.488484852324</v>
+        <v>2316.61005054356</v>
       </c>
       <c r="V11" t="n">
-        <v>2534.488484852324</v>
+        <v>1959.12063566981</v>
       </c>
       <c r="W11" t="n">
-        <v>2156.651875298571</v>
+        <v>1959.12063566981</v>
       </c>
       <c r="X11" t="n">
-        <v>1744.931876466318</v>
+        <v>1597.949951899336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.931876466318</v>
+        <v>1597.949951899336</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>194.1501944291109</v>
       </c>
       <c r="G12" t="n">
-        <v>100.4688639576897</v>
+        <v>100.4688639576898</v>
       </c>
       <c r="H12" t="n">
-        <v>50.68976969704649</v>
+        <v>50.68976969704651</v>
       </c>
       <c r="I12" t="n">
-        <v>50.68976969704649</v>
+        <v>70.70432218421753</v>
       </c>
       <c r="J12" t="n">
-        <v>356.8745633184984</v>
+        <v>291.7919349570001</v>
       </c>
       <c r="K12" t="n">
-        <v>984.1604633194487</v>
+        <v>919.0778349579506</v>
       </c>
       <c r="L12" t="n">
-        <v>1041.128407860636</v>
+        <v>976.0457794991379</v>
       </c>
       <c r="M12" t="n">
-        <v>1110.752803213842</v>
+        <v>1045.670174852344</v>
       </c>
       <c r="N12" t="n">
-        <v>1184.561353937002</v>
+        <v>1119.478725575504</v>
       </c>
       <c r="O12" t="n">
-        <v>1248.471041458082</v>
+        <v>1183.388413096584</v>
       </c>
       <c r="P12" t="n">
-        <v>1822.88816664149</v>
+        <v>1231.539948445299</v>
       </c>
       <c r="Q12" t="n">
-        <v>1846.964323426248</v>
+        <v>1742.281149998924</v>
       </c>
       <c r="R12" t="n">
         <v>1846.964323426248</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.867576405506</v>
+        <v>1031.01396391611</v>
       </c>
       <c r="C13" t="n">
-        <v>619.895013284422</v>
+        <v>859.0414007950257</v>
       </c>
       <c r="D13" t="n">
-        <v>619.895013284422</v>
+        <v>695.7246279217964</v>
       </c>
       <c r="E13" t="n">
-        <v>619.895013284422</v>
+        <v>529.5164220746499</v>
       </c>
       <c r="F13" t="n">
-        <v>448.0332390589825</v>
+        <v>357.6546478492103</v>
       </c>
       <c r="G13" t="n">
-        <v>282.0885116372215</v>
+        <v>191.7099204274493</v>
       </c>
       <c r="H13" t="n">
-        <v>141.0683609068187</v>
+        <v>50.68976969704651</v>
       </c>
       <c r="I13" t="n">
-        <v>50.68976969704649</v>
+        <v>50.68976969704651</v>
       </c>
       <c r="J13" t="n">
-        <v>129.8173243638516</v>
+        <v>129.8173243638521</v>
       </c>
       <c r="K13" t="n">
-        <v>391.8998920010936</v>
+        <v>391.899892001094</v>
       </c>
       <c r="L13" t="n">
-        <v>792.08732918121</v>
+        <v>792.0873291812106</v>
       </c>
       <c r="M13" t="n">
-        <v>1231.244508046352</v>
+        <v>1231.244508046353</v>
       </c>
       <c r="N13" t="n">
-        <v>1655.566750529573</v>
+        <v>1655.566750529574</v>
       </c>
       <c r="O13" t="n">
-        <v>2054.250639622128</v>
+        <v>2054.250639622129</v>
       </c>
       <c r="P13" t="n">
-        <v>2381.862627240696</v>
+        <v>2381.862627240697</v>
       </c>
       <c r="Q13" t="n">
-        <v>2534.488484852324</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="R13" t="n">
-        <v>2534.488484852324</v>
+        <v>2501.489420054934</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.676719955394</v>
+        <v>2336.795904014443</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.671498303869</v>
+        <v>2094.790682362918</v>
       </c>
       <c r="U13" t="n">
-        <v>2007.504081201483</v>
+        <v>1814.623265260532</v>
       </c>
       <c r="V13" t="n">
-        <v>1725.792613809512</v>
+        <v>1532.911797868561</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.940209982024</v>
+        <v>1273.577860470304</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.37631342783</v>
+        <v>1031.01396391611</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.0335451175717</v>
+        <v>1031.01396391611</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1730.503032151137</v>
+        <v>1289.101414682793</v>
       </c>
       <c r="C14" t="n">
-        <v>1303.602302164437</v>
+        <v>862.2006846960933</v>
       </c>
       <c r="D14" t="n">
-        <v>880.3096813494371</v>
+        <v>438.9080638810935</v>
       </c>
       <c r="E14" t="n">
-        <v>454.3327414972948</v>
+        <v>438.9080638810935</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3327414972948</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="G14" t="n">
-        <v>50.68976969704649</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="H14" t="n">
         <v>50.68976969704649</v>
@@ -5284,46 +5284,46 @@
         <v>522.5736895211462</v>
       </c>
       <c r="L14" t="n">
-        <v>592.3071049504465</v>
+        <v>1088.098899435849</v>
       </c>
       <c r="M14" t="n">
-        <v>675.0452493909033</v>
+        <v>1715.3847994368</v>
       </c>
       <c r="N14" t="n">
-        <v>759.871927370034</v>
+        <v>1800.21147741593</v>
       </c>
       <c r="O14" t="n">
-        <v>1217.031039330654</v>
+        <v>2427.497377416881</v>
       </c>
       <c r="P14" t="n">
-        <v>1844.316939331604</v>
+        <v>2488.404504972091</v>
       </c>
       <c r="Q14" t="n">
-        <v>2374.076491626779</v>
+        <v>2526.31514990453</v>
       </c>
       <c r="R14" t="n">
-        <v>2534.488484852324</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="S14" t="n">
-        <v>2534.488484852324</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="T14" t="n">
-        <v>2534.488484852324</v>
+        <v>2316.61005054356</v>
       </c>
       <c r="U14" t="n">
-        <v>2507.840811316417</v>
+        <v>2058.310828388796</v>
       </c>
       <c r="V14" t="n">
-        <v>2150.351396442667</v>
+        <v>1700.821413515046</v>
       </c>
       <c r="W14" t="n">
-        <v>2150.351396442667</v>
+        <v>1700.821413515046</v>
       </c>
       <c r="X14" t="n">
-        <v>2150.351396442667</v>
+        <v>1289.101414682793</v>
       </c>
       <c r="Y14" t="n">
-        <v>2150.351396442667</v>
+        <v>1289.101414682793</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>194.1501944291109</v>
       </c>
       <c r="G15" t="n">
-        <v>100.4688639576897</v>
+        <v>100.4688639576898</v>
       </c>
       <c r="H15" t="n">
         <v>50.68976969704649</v>
@@ -5357,28 +5357,28 @@
         <v>50.68976969704649</v>
       </c>
       <c r="J15" t="n">
-        <v>64.77207084890736</v>
+        <v>356.8745633184984</v>
       </c>
       <c r="K15" t="n">
-        <v>101.5411255311643</v>
+        <v>984.1604633194488</v>
       </c>
       <c r="L15" t="n">
-        <v>158.5090700723516</v>
+        <v>1041.128407860636</v>
       </c>
       <c r="M15" t="n">
-        <v>785.7949700733019</v>
+        <v>1110.752803213842</v>
       </c>
       <c r="N15" t="n">
-        <v>1147.450731291825</v>
+        <v>1184.561353937002</v>
       </c>
       <c r="O15" t="n">
-        <v>1774.736631292776</v>
+        <v>1248.471041458082</v>
       </c>
       <c r="P15" t="n">
-        <v>1822.88816664149</v>
+        <v>1296.622576806797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1846.964323426248</v>
+        <v>1807.363778360422</v>
       </c>
       <c r="R15" t="n">
         <v>1846.964323426248</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.1938572968102</v>
+        <v>791.867576405506</v>
       </c>
       <c r="C16" t="n">
-        <v>473.2212941757261</v>
+        <v>619.895013284422</v>
       </c>
       <c r="D16" t="n">
-        <v>473.2212941757261</v>
+        <v>619.895013284422</v>
       </c>
       <c r="E16" t="n">
-        <v>307.0130883285797</v>
+        <v>619.895013284422</v>
       </c>
       <c r="F16" t="n">
-        <v>307.0130883285797</v>
+        <v>448.0332390589825</v>
       </c>
       <c r="G16" t="n">
-        <v>141.0683609068187</v>
+        <v>282.0885116372215</v>
       </c>
       <c r="H16" t="n">
         <v>141.0683609068187</v>
@@ -5460,28 +5460,28 @@
         <v>2534.488484852325</v>
       </c>
       <c r="R16" t="n">
-        <v>2501.489420054934</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.795904014443</v>
+        <v>2529.676719955394</v>
       </c>
       <c r="T16" t="n">
-        <v>2094.790682362918</v>
+        <v>2287.671498303869</v>
       </c>
       <c r="U16" t="n">
-        <v>1814.623265260532</v>
+        <v>2007.504081201483</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.91179786856</v>
+        <v>1725.792613809512</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.059394041073</v>
+        <v>1450.940209982024</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.495497486878</v>
+        <v>1208.37631342783</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1527291766205</v>
+        <v>982.0335451175717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2504.946129083384</v>
+        <v>2504.946129083383</v>
       </c>
       <c r="C17" t="n">
-        <v>2078.045399096684</v>
+        <v>2078.045399096683</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.752778281685</v>
+        <v>1654.752778281683</v>
       </c>
       <c r="E17" t="n">
-        <v>1228.775838429542</v>
+        <v>1228.775838429541</v>
       </c>
       <c r="F17" t="n">
         <v>803.6516566189412</v>
@@ -5515,52 +5515,52 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J17" t="n">
-        <v>129.9866783714773</v>
+        <v>521.7158970791033</v>
       </c>
       <c r="K17" t="n">
-        <v>870.6597269279373</v>
+        <v>1324.007488839135</v>
       </c>
       <c r="L17" t="n">
-        <v>1907.947111984811</v>
+        <v>2361.294873896009</v>
       </c>
       <c r="M17" t="n">
-        <v>3032.028308114764</v>
+        <v>2518.936927653801</v>
       </c>
       <c r="N17" t="n">
-        <v>4130.012871186696</v>
+        <v>2603.763605632932</v>
       </c>
       <c r="O17" t="n">
-        <v>4207.945317848286</v>
+        <v>3563.857752207799</v>
       </c>
       <c r="P17" t="n">
-        <v>5014.331332753553</v>
+        <v>4370.243767113066</v>
       </c>
       <c r="Q17" t="n">
-        <v>5052.241977685992</v>
+        <v>4900.00331940824</v>
       </c>
       <c r="R17" t="n">
-        <v>5060.415312633787</v>
+        <v>5060.415312633785</v>
       </c>
       <c r="S17" t="n">
-        <v>4971.910183289209</v>
+        <v>4971.910183289207</v>
       </c>
       <c r="T17" t="n">
-        <v>4754.031748980444</v>
+        <v>4754.031748980442</v>
       </c>
       <c r="U17" t="n">
-        <v>4495.73252682568</v>
+        <v>4495.732526825678</v>
       </c>
       <c r="V17" t="n">
-        <v>4138.24311195193</v>
+        <v>4138.243111951928</v>
       </c>
       <c r="W17" t="n">
-        <v>3741.851762252277</v>
+        <v>3741.851762252275</v>
       </c>
       <c r="X17" t="n">
-        <v>3330.131763420024</v>
+        <v>3330.131763420023</v>
       </c>
       <c r="Y17" t="n">
-        <v>2924.794493374915</v>
+        <v>2924.794493374913</v>
       </c>
     </row>
     <row r="18">
@@ -5576,10 +5576,10 @@
         <v>546.8564535136137</v>
       </c>
       <c r="D18" t="n">
-        <v>443.0164950288988</v>
+        <v>443.0164950288987</v>
       </c>
       <c r="E18" t="n">
-        <v>338.314561301836</v>
+        <v>338.3145613018359</v>
       </c>
       <c r="F18" t="n">
         <v>244.6687309847401</v>
@@ -5594,25 +5594,25 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J18" t="n">
-        <v>115.2906074045366</v>
+        <v>178.4217463286527</v>
       </c>
       <c r="K18" t="n">
-        <v>152.0596620867936</v>
+        <v>215.1908010109097</v>
       </c>
       <c r="L18" t="n">
-        <v>880.16168441968</v>
+        <v>1131.24748948209</v>
       </c>
       <c r="M18" t="n">
-        <v>949.7860797728858</v>
+        <v>1200.871884835296</v>
       </c>
       <c r="N18" t="n">
-        <v>1023.594630496046</v>
+        <v>1274.680435558456</v>
       </c>
       <c r="O18" t="n">
-        <v>1087.504318017126</v>
+        <v>1338.590123079537</v>
       </c>
       <c r="P18" t="n">
-        <v>1873.406703197119</v>
+        <v>1386.741658428251</v>
       </c>
       <c r="Q18" t="n">
         <v>1897.482859981877</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>940.5123497413362</v>
+        <v>1099.013098839898</v>
       </c>
       <c r="C19" t="n">
-        <v>768.5397866202521</v>
+        <v>927.0405357188145</v>
       </c>
       <c r="D19" t="n">
-        <v>605.2230137470228</v>
+        <v>763.7237628455852</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0148078998764</v>
+        <v>597.5155569984387</v>
       </c>
       <c r="F19" t="n">
-        <v>267.1530336744368</v>
+        <v>425.6537827729991</v>
       </c>
       <c r="G19" t="n">
-        <v>101.2083062526757</v>
+        <v>259.7090553512381</v>
       </c>
       <c r="H19" t="n">
-        <v>101.2083062526757</v>
+        <v>118.6889046208353</v>
       </c>
       <c r="I19" t="n">
         <v>101.2083062526757</v>
@@ -5700,25 +5700,25 @@
         <v>2585.007021407954</v>
       </c>
       <c r="S19" t="n">
-        <v>2585.007021407954</v>
+        <v>2420.313505367463</v>
       </c>
       <c r="T19" t="n">
-        <v>2436.316271639699</v>
+        <v>2178.308283715938</v>
       </c>
       <c r="U19" t="n">
-        <v>2156.148854537313</v>
+        <v>1898.140866613551</v>
       </c>
       <c r="V19" t="n">
-        <v>1874.437387145342</v>
+        <v>1616.42939922158</v>
       </c>
       <c r="W19" t="n">
-        <v>1599.584983317854</v>
+        <v>1341.576995394093</v>
       </c>
       <c r="X19" t="n">
-        <v>1357.02108676366</v>
+        <v>1099.013098839898</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.678318453402</v>
+        <v>1099.013098839898</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2504.946129083384</v>
+        <v>2504.946129083383</v>
       </c>
       <c r="C20" t="n">
-        <v>2078.045399096684</v>
+        <v>2078.045399096683</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.752778281685</v>
+        <v>1654.752778281683</v>
       </c>
       <c r="E20" t="n">
-        <v>1228.775838429542</v>
+        <v>1228.775838429541</v>
       </c>
       <c r="F20" t="n">
-        <v>803.6516566189423</v>
+        <v>803.6516566189412</v>
       </c>
       <c r="G20" t="n">
-        <v>400.008684818694</v>
+        <v>400.0086848186928</v>
       </c>
       <c r="H20" t="n">
-        <v>109.2691442554954</v>
+        <v>109.2691442554942</v>
       </c>
       <c r="I20" t="n">
         <v>101.2083062526757</v>
       </c>
       <c r="J20" t="n">
-        <v>129.9866783714773</v>
+        <v>521.7158970791033</v>
       </c>
       <c r="K20" t="n">
-        <v>733.9769143647172</v>
+        <v>1131.232400413725</v>
       </c>
       <c r="L20" t="n">
-        <v>1771.264299421591</v>
+        <v>2168.519785470599</v>
       </c>
       <c r="M20" t="n">
-        <v>2895.345495551544</v>
+        <v>2251.257929911056</v>
       </c>
       <c r="N20" t="n">
-        <v>3993.330058623476</v>
+        <v>3349.242492982989</v>
       </c>
       <c r="O20" t="n">
-        <v>4953.424205198343</v>
+        <v>4309.336639557855</v>
       </c>
       <c r="P20" t="n">
-        <v>5014.331332753553</v>
+        <v>4370.243767113066</v>
       </c>
       <c r="Q20" t="n">
-        <v>5052.241977685992</v>
+        <v>4900.00331940824</v>
       </c>
       <c r="R20" t="n">
-        <v>5060.415312633787</v>
+        <v>5060.415312633785</v>
       </c>
       <c r="S20" t="n">
-        <v>4971.910183289209</v>
+        <v>4971.910183289207</v>
       </c>
       <c r="T20" t="n">
-        <v>4754.031748980444</v>
+        <v>4754.031748980442</v>
       </c>
       <c r="U20" t="n">
-        <v>4495.73252682568</v>
+        <v>4495.732526825679</v>
       </c>
       <c r="V20" t="n">
-        <v>4138.24311195193</v>
+        <v>4138.243111951929</v>
       </c>
       <c r="W20" t="n">
-        <v>3741.851762252277</v>
+        <v>3741.851762252275</v>
       </c>
       <c r="X20" t="n">
-        <v>3330.131763420024</v>
+        <v>3330.131763420023</v>
       </c>
       <c r="Y20" t="n">
-        <v>2924.794493374915</v>
+        <v>2924.794493374913</v>
       </c>
     </row>
     <row r="21">
@@ -5813,10 +5813,10 @@
         <v>546.8564535136137</v>
       </c>
       <c r="D21" t="n">
-        <v>443.0164950288988</v>
+        <v>443.0164950288987</v>
       </c>
       <c r="E21" t="n">
-        <v>338.314561301836</v>
+        <v>338.3145613018359</v>
       </c>
       <c r="F21" t="n">
         <v>244.6687309847401</v>
@@ -5828,31 +5828,31 @@
         <v>101.2083062526757</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2083062526757</v>
+        <v>121.2228587398467</v>
       </c>
       <c r="J21" t="n">
-        <v>407.3930998741277</v>
+        <v>320.1671487679833</v>
       </c>
       <c r="K21" t="n">
-        <v>444.1621545563846</v>
+        <v>969.5963715135799</v>
       </c>
       <c r="L21" t="n">
-        <v>501.130099097572</v>
+        <v>1026.564316054767</v>
       </c>
       <c r="M21" t="n">
-        <v>570.7544944507778</v>
+        <v>1096.188711407973</v>
       </c>
       <c r="N21" t="n">
-        <v>1755.007589578214</v>
+        <v>1169.997262131133</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.917277099295</v>
+        <v>1233.906949652214</v>
       </c>
       <c r="P21" t="n">
-        <v>1873.406703197119</v>
+        <v>1282.058485000928</v>
       </c>
       <c r="Q21" t="n">
-        <v>1897.482859981877</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R21" t="n">
         <v>1897.482859981877</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>892.0691935743787</v>
+        <v>864.9462135293472</v>
       </c>
       <c r="C22" t="n">
-        <v>720.0966304532947</v>
+        <v>692.9736504082632</v>
       </c>
       <c r="D22" t="n">
-        <v>720.0966304532947</v>
+        <v>529.6568775350339</v>
       </c>
       <c r="E22" t="n">
-        <v>670.4135498400474</v>
+        <v>363.4486716878874</v>
       </c>
       <c r="F22" t="n">
-        <v>498.5517756146078</v>
+        <v>191.5868974624479</v>
       </c>
       <c r="G22" t="n">
-        <v>332.6070481928507</v>
+        <v>191.5868974624479</v>
       </c>
       <c r="H22" t="n">
-        <v>191.586897462448</v>
+        <v>191.5868974624479</v>
       </c>
       <c r="I22" t="n">
         <v>101.2083062526757</v>
@@ -5934,28 +5934,28 @@
         <v>2585.007021407954</v>
       </c>
       <c r="R22" t="n">
-        <v>2552.007956610563</v>
+        <v>2585.007021407954</v>
       </c>
       <c r="S22" t="n">
-        <v>2387.314440570072</v>
+        <v>2420.313505367463</v>
       </c>
       <c r="T22" t="n">
-        <v>2145.309218918547</v>
+        <v>2178.308283715938</v>
       </c>
       <c r="U22" t="n">
-        <v>1865.141801816161</v>
+        <v>1898.140866613551</v>
       </c>
       <c r="V22" t="n">
-        <v>1583.430334424189</v>
+        <v>1616.42939922158</v>
       </c>
       <c r="W22" t="n">
-        <v>1308.577930596702</v>
+        <v>1341.576995394093</v>
       </c>
       <c r="X22" t="n">
-        <v>1308.577930596702</v>
+        <v>1281.454950551671</v>
       </c>
       <c r="Y22" t="n">
-        <v>1082.235162286444</v>
+        <v>1055.112182241413</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>803.6516566189403</v>
       </c>
       <c r="G23" t="n">
-        <v>400.0086848186928</v>
+        <v>400.008684818692</v>
       </c>
       <c r="H23" t="n">
         <v>109.2691442554942</v>
@@ -5989,40 +5989,40 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J23" t="n">
-        <v>129.9866783714773</v>
+        <v>521.7158970791033</v>
       </c>
       <c r="K23" t="n">
-        <v>733.9769143647172</v>
+        <v>1324.007488839135</v>
       </c>
       <c r="L23" t="n">
-        <v>1771.264299421591</v>
+        <v>2361.294873896009</v>
       </c>
       <c r="M23" t="n">
-        <v>2895.345495551544</v>
+        <v>2518.936927653801</v>
       </c>
       <c r="N23" t="n">
-        <v>3993.330058623476</v>
+        <v>2603.763605632932</v>
       </c>
       <c r="O23" t="n">
-        <v>4953.424205198343</v>
+        <v>3563.857752207799</v>
       </c>
       <c r="P23" t="n">
-        <v>5014.331332753553</v>
+        <v>4370.243767113066</v>
       </c>
       <c r="Q23" t="n">
-        <v>5052.241977685992</v>
+        <v>4900.00331940824</v>
       </c>
       <c r="R23" t="n">
-        <v>5060.415312633787</v>
+        <v>5060.415312633785</v>
       </c>
       <c r="S23" t="n">
-        <v>4971.910183289208</v>
+        <v>4971.910183289207</v>
       </c>
       <c r="T23" t="n">
-        <v>4754.031748980443</v>
+        <v>4754.031748980442</v>
       </c>
       <c r="U23" t="n">
-        <v>4495.732526825679</v>
+        <v>4495.732526825678</v>
       </c>
       <c r="V23" t="n">
         <v>4138.243111951928</v>
@@ -6050,10 +6050,10 @@
         <v>546.8564535136137</v>
       </c>
       <c r="D24" t="n">
-        <v>443.0164950288988</v>
+        <v>443.0164950288987</v>
       </c>
       <c r="E24" t="n">
-        <v>338.314561301836</v>
+        <v>338.3145613018359</v>
       </c>
       <c r="F24" t="n">
         <v>244.6687309847401</v>
@@ -6068,28 +6068,28 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J24" t="n">
-        <v>115.2906074045366</v>
+        <v>407.3930998741276</v>
       </c>
       <c r="K24" t="n">
-        <v>152.0596620867936</v>
+        <v>1056.822322619724</v>
       </c>
       <c r="L24" t="n">
-        <v>1068.116350557974</v>
+        <v>1113.790267160912</v>
       </c>
       <c r="M24" t="n">
-        <v>1137.74074591118</v>
+        <v>1183.414662514117</v>
       </c>
       <c r="N24" t="n">
-        <v>1211.54929663434</v>
+        <v>1257.223213237277</v>
       </c>
       <c r="O24" t="n">
-        <v>1825.255167848405</v>
+        <v>1321.132900758358</v>
       </c>
       <c r="P24" t="n">
-        <v>1873.406703197119</v>
+        <v>1768.723529769796</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.482859981877</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R24" t="n">
         <v>1897.482859981877</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>682.5043618175748</v>
+        <v>940.512349741336</v>
       </c>
       <c r="C25" t="n">
-        <v>682.5043618175748</v>
+        <v>768.539786620252</v>
       </c>
       <c r="D25" t="n">
-        <v>605.2230137470228</v>
+        <v>605.2230137470227</v>
       </c>
       <c r="E25" t="n">
-        <v>439.0148078998764</v>
+        <v>439.0148078998762</v>
       </c>
       <c r="F25" t="n">
-        <v>267.1530336744368</v>
+        <v>267.1530336744367</v>
       </c>
       <c r="G25" t="n">
         <v>101.2083062526757</v>
@@ -6174,25 +6174,25 @@
         <v>2585.007021407954</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.313505367463</v>
+        <v>2435.757596737029</v>
       </c>
       <c r="T25" t="n">
-        <v>2178.308283715938</v>
+        <v>2193.752375085504</v>
       </c>
       <c r="U25" t="n">
-        <v>1898.140866613551</v>
+        <v>1913.584957983118</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.42939922158</v>
+        <v>1631.873490591147</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.576995394093</v>
+        <v>1357.02108676366</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.013098839898</v>
+        <v>1357.02108676366</v>
       </c>
       <c r="Y25" t="n">
-        <v>872.6703305296405</v>
+        <v>1130.678318453402</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>803.6516566189412</v>
       </c>
       <c r="G26" t="n">
-        <v>400.0086848186929</v>
+        <v>400.0086848186928</v>
       </c>
       <c r="H26" t="n">
         <v>109.2691442554942</v>
@@ -6226,28 +6226,28 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J26" t="n">
-        <v>129.9866783714773</v>
+        <v>521.7158970791035</v>
       </c>
       <c r="K26" t="n">
-        <v>181.3630073691493</v>
+        <v>1324.007488839136</v>
       </c>
       <c r="L26" t="n">
-        <v>533.936504708799</v>
+        <v>2361.294873896009</v>
       </c>
       <c r="M26" t="n">
-        <v>1658.017700838752</v>
+        <v>2444.033018336466</v>
       </c>
       <c r="N26" t="n">
-        <v>2756.002263910685</v>
+        <v>2603.763605632934</v>
       </c>
       <c r="O26" t="n">
-        <v>3716.096410485551</v>
+        <v>3563.8577522078</v>
       </c>
       <c r="P26" t="n">
-        <v>4522.482425390818</v>
+        <v>4370.243767113067</v>
       </c>
       <c r="Q26" t="n">
-        <v>5052.241977685992</v>
+        <v>4900.003319408242</v>
       </c>
       <c r="R26" t="n">
         <v>5060.415312633787</v>
@@ -6305,28 +6305,28 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J27" t="n">
-        <v>115.2906074045366</v>
+        <v>407.3930998741277</v>
       </c>
       <c r="K27" t="n">
-        <v>336.5286951096246</v>
+        <v>1056.822322619724</v>
       </c>
       <c r="L27" t="n">
-        <v>393.496639650812</v>
+        <v>1113.790267160912</v>
       </c>
       <c r="M27" t="n">
-        <v>463.1210350040178</v>
+        <v>1183.414662514117</v>
       </c>
       <c r="N27" t="n">
-        <v>536.9295857271776</v>
+        <v>1257.223213237277</v>
       </c>
       <c r="O27" t="n">
-        <v>600.8392732482585</v>
+        <v>1321.132900758358</v>
       </c>
       <c r="P27" t="n">
-        <v>1386.741658428251</v>
+        <v>1369.284436107072</v>
       </c>
       <c r="Q27" t="n">
-        <v>1897.482859981877</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R27" t="n">
         <v>1897.482859981877</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3289.607104286508</v>
+        <v>940.5123497413362</v>
       </c>
       <c r="C28" t="n">
-        <v>3289.607104286508</v>
+        <v>768.5397866202521</v>
       </c>
       <c r="D28" t="n">
-        <v>3126.290331413279</v>
+        <v>605.2230137470228</v>
       </c>
       <c r="E28" t="n">
-        <v>2960.082125566133</v>
+        <v>439.0148078998764</v>
       </c>
       <c r="F28" t="n">
-        <v>2808.015339418684</v>
+        <v>267.1530336744368</v>
       </c>
       <c r="G28" t="n">
-        <v>2808.015339418684</v>
+        <v>101.2083062526757</v>
       </c>
       <c r="H28" t="n">
-        <v>2666.995188688281</v>
+        <v>101.2083062526757</v>
       </c>
       <c r="I28" t="n">
-        <v>2576.616597478509</v>
+        <v>101.2083062526757</v>
       </c>
       <c r="J28" t="n">
-        <v>2655.744152145314</v>
+        <v>180.3358609194811</v>
       </c>
       <c r="K28" t="n">
-        <v>2917.826719782556</v>
+        <v>442.4184285567229</v>
       </c>
       <c r="L28" t="n">
-        <v>3318.014156962672</v>
+        <v>842.6058657368394</v>
       </c>
       <c r="M28" t="n">
-        <v>3757.171335827814</v>
+        <v>1281.763044601981</v>
       </c>
       <c r="N28" t="n">
-        <v>4181.493578311036</v>
+        <v>1706.085287085203</v>
       </c>
       <c r="O28" t="n">
-        <v>4580.177467403591</v>
+        <v>2104.769176177758</v>
       </c>
       <c r="P28" t="n">
-        <v>4907.789455022159</v>
+        <v>2432.381163796326</v>
       </c>
       <c r="Q28" t="n">
-        <v>5060.415312633787</v>
+        <v>2585.007021407954</v>
       </c>
       <c r="R28" t="n">
-        <v>5027.416247836396</v>
+        <v>2552.007956610563</v>
       </c>
       <c r="S28" t="n">
-        <v>5027.416247836396</v>
+        <v>2552.007956610563</v>
       </c>
       <c r="T28" t="n">
-        <v>4785.411026184871</v>
+        <v>2436.316271639699</v>
       </c>
       <c r="U28" t="n">
-        <v>4505.243609082485</v>
+        <v>2156.148854537313</v>
       </c>
       <c r="V28" t="n">
-        <v>4223.532141690514</v>
+        <v>1874.437387145342</v>
       </c>
       <c r="W28" t="n">
-        <v>3948.679737863027</v>
+        <v>1599.584983317854</v>
       </c>
       <c r="X28" t="n">
-        <v>3706.115841308832</v>
+        <v>1357.02108676366</v>
       </c>
       <c r="Y28" t="n">
-        <v>3479.773072998574</v>
+        <v>1130.678318453402</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J29" t="n">
-        <v>321.9981151552266</v>
+        <v>521.7158970791035</v>
       </c>
       <c r="K29" t="n">
-        <v>1124.289706915259</v>
+        <v>1324.007488839136</v>
       </c>
       <c r="L29" t="n">
-        <v>2161.577091972133</v>
+        <v>2361.294873896009</v>
       </c>
       <c r="M29" t="n">
-        <v>3285.658288102085</v>
+        <v>2444.033018336466</v>
       </c>
       <c r="N29" t="n">
-        <v>4383.642851174018</v>
+        <v>3542.0175814084</v>
       </c>
       <c r="O29" t="n">
-        <v>4461.575297835608</v>
+        <v>4207.945317848286</v>
       </c>
       <c r="P29" t="n">
-        <v>4522.482425390818</v>
+        <v>5014.331332753553</v>
       </c>
       <c r="Q29" t="n">
         <v>5052.241977685992</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3827.294809648019</v>
+        <v>664.3623569961089</v>
       </c>
       <c r="C30" t="n">
-        <v>3709.788906165523</v>
+        <v>546.8564535136137</v>
       </c>
       <c r="D30" t="n">
-        <v>3605.948947680808</v>
+        <v>443.0164950288988</v>
       </c>
       <c r="E30" t="n">
-        <v>3501.247013953746</v>
+        <v>338.314561301836</v>
       </c>
       <c r="F30" t="n">
-        <v>3407.60118363665</v>
+        <v>244.6687309847401</v>
       </c>
       <c r="G30" t="n">
-        <v>3313.919853165229</v>
+        <v>150.987400513319</v>
       </c>
       <c r="H30" t="n">
-        <v>3264.140758904586</v>
+        <v>101.2083062526757</v>
       </c>
       <c r="I30" t="n">
-        <v>3264.140758904586</v>
+        <v>121.2228587398468</v>
       </c>
       <c r="J30" t="n">
-        <v>3278.223060056447</v>
+        <v>320.1671487679833</v>
       </c>
       <c r="K30" t="n">
-        <v>3314.992114738704</v>
+        <v>969.5963715135799</v>
       </c>
       <c r="L30" t="n">
-        <v>3371.960059279891</v>
+        <v>1026.564316054767</v>
       </c>
       <c r="M30" t="n">
-        <v>3740.024837851798</v>
+        <v>1096.188711407973</v>
       </c>
       <c r="N30" t="n">
-        <v>4924.277932979234</v>
+        <v>1169.997262131133</v>
       </c>
       <c r="O30" t="n">
-        <v>4988.187620500315</v>
+        <v>1233.906949652214</v>
       </c>
       <c r="P30" t="n">
-        <v>5036.339155849029</v>
+        <v>1282.058485000928</v>
       </c>
       <c r="Q30" t="n">
-        <v>5060.415312633787</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R30" t="n">
-        <v>5060.415312633787</v>
+        <v>1897.482859981877</v>
       </c>
       <c r="S30" t="n">
-        <v>4986.008999194948</v>
+        <v>1823.076546543038</v>
       </c>
       <c r="T30" t="n">
-        <v>4845.630263338178</v>
+        <v>1682.697810686269</v>
       </c>
       <c r="U30" t="n">
-        <v>4660.886569975642</v>
+        <v>1497.954117323733</v>
       </c>
       <c r="V30" t="n">
-        <v>4455.913431114909</v>
+        <v>1292.980978462999</v>
       </c>
       <c r="W30" t="n">
-        <v>4259.392053948126</v>
+        <v>1096.459601296216</v>
       </c>
       <c r="X30" t="n">
-        <v>4095.914707714789</v>
+        <v>932.9822550628793</v>
       </c>
       <c r="Y30" t="n">
-        <v>3956.221819068081</v>
+        <v>793.2893664161717</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>925.0682583717696</v>
+        <v>682.5043618175748</v>
       </c>
       <c r="C31" t="n">
-        <v>753.0956952506856</v>
+        <v>510.5317986964908</v>
       </c>
       <c r="D31" t="n">
-        <v>605.2230137470228</v>
+        <v>510.5317986964908</v>
       </c>
       <c r="E31" t="n">
-        <v>439.0148078998764</v>
+        <v>510.5317986964908</v>
       </c>
       <c r="F31" t="n">
-        <v>267.1530336744368</v>
+        <v>338.6700244710512</v>
       </c>
       <c r="G31" t="n">
-        <v>101.2083062526757</v>
+        <v>172.7252970492902</v>
       </c>
       <c r="H31" t="n">
         <v>101.2083062526757</v>
@@ -6663,10 +6663,10 @@
         <v>1341.576995394093</v>
       </c>
       <c r="X31" t="n">
-        <v>1341.576995394093</v>
+        <v>1099.013098839898</v>
       </c>
       <c r="Y31" t="n">
-        <v>1115.234227083835</v>
+        <v>872.6703305296405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>803.6516566189412</v>
       </c>
       <c r="G32" t="n">
-        <v>400.0086848186929</v>
+        <v>400.0086848186928</v>
       </c>
       <c r="H32" t="n">
         <v>109.2691442554942</v>
@@ -6706,22 +6706,22 @@
         <v>1324.007488839136</v>
       </c>
       <c r="L32" t="n">
-        <v>2361.294873896009</v>
+        <v>1423.040898120544</v>
       </c>
       <c r="M32" t="n">
-        <v>3485.376070025962</v>
+        <v>1505.779042561001</v>
       </c>
       <c r="N32" t="n">
-        <v>4583.360633097895</v>
+        <v>2603.763605632934</v>
       </c>
       <c r="O32" t="n">
-        <v>4953.424205198343</v>
+        <v>3563.8577522078</v>
       </c>
       <c r="P32" t="n">
-        <v>5014.331332753553</v>
+        <v>4370.243767113067</v>
       </c>
       <c r="Q32" t="n">
-        <v>5052.241977685992</v>
+        <v>4900.003319408242</v>
       </c>
       <c r="R32" t="n">
         <v>5060.415312633787</v>
@@ -6779,28 +6779,28 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J33" t="n">
-        <v>115.2906074045366</v>
+        <v>407.3930998741277</v>
       </c>
       <c r="K33" t="n">
-        <v>152.0596620867936</v>
+        <v>1056.822322619724</v>
       </c>
       <c r="L33" t="n">
-        <v>209.0276066279809</v>
+        <v>1113.790267160912</v>
       </c>
       <c r="M33" t="n">
-        <v>577.0923851998882</v>
+        <v>1183.414662514117</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.345480327324</v>
+        <v>1257.223213237277</v>
       </c>
       <c r="O33" t="n">
-        <v>1825.255167848405</v>
+        <v>1321.132900758358</v>
       </c>
       <c r="P33" t="n">
-        <v>1873.406703197119</v>
+        <v>1369.284436107072</v>
       </c>
       <c r="Q33" t="n">
-        <v>1897.482859981877</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R33" t="n">
         <v>1897.482859981877</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>940.5123497413362</v>
+        <v>682.5043618175748</v>
       </c>
       <c r="C34" t="n">
-        <v>768.5397866202521</v>
+        <v>510.5317986964908</v>
       </c>
       <c r="D34" t="n">
-        <v>605.2230137470228</v>
+        <v>510.5317986964908</v>
       </c>
       <c r="E34" t="n">
         <v>439.0148078998764</v>
@@ -6885,25 +6885,25 @@
         <v>2585.007021407954</v>
       </c>
       <c r="S34" t="n">
-        <v>2585.007021407954</v>
+        <v>2420.313505367463</v>
       </c>
       <c r="T34" t="n">
-        <v>2436.316271639699</v>
+        <v>2178.308283715938</v>
       </c>
       <c r="U34" t="n">
-        <v>2156.148854537313</v>
+        <v>1898.140866613551</v>
       </c>
       <c r="V34" t="n">
-        <v>1874.437387145342</v>
+        <v>1616.42939922158</v>
       </c>
       <c r="W34" t="n">
-        <v>1599.584983317854</v>
+        <v>1341.576995394093</v>
       </c>
       <c r="X34" t="n">
-        <v>1357.02108676366</v>
+        <v>1099.013098839898</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.678318453402</v>
+        <v>872.6703305296405</v>
       </c>
     </row>
     <row r="35">
@@ -6940,7 +6940,7 @@
         <v>129.9866783714773</v>
       </c>
       <c r="K35" t="n">
-        <v>733.9769143647172</v>
+        <v>932.2782701315095</v>
       </c>
       <c r="L35" t="n">
         <v>1771.264299421591</v>
@@ -7013,28 +7013,28 @@
         <v>101.2083062526757</v>
       </c>
       <c r="I36" t="n">
-        <v>101.2083062526757</v>
+        <v>118.6655285738547</v>
       </c>
       <c r="J36" t="n">
-        <v>115.2906074045366</v>
+        <v>424.8503221953066</v>
       </c>
       <c r="K36" t="n">
-        <v>152.0596620867936</v>
+        <v>1074.279544940903</v>
       </c>
       <c r="L36" t="n">
-        <v>209.0276066279809</v>
+        <v>1131.24748948209</v>
       </c>
       <c r="M36" t="n">
-        <v>577.0923851998882</v>
+        <v>1200.871884835296</v>
       </c>
       <c r="N36" t="n">
-        <v>1761.345480327324</v>
+        <v>1274.680435558456</v>
       </c>
       <c r="O36" t="n">
-        <v>1825.255167848405</v>
+        <v>1338.590123079537</v>
       </c>
       <c r="P36" t="n">
-        <v>1873.406703197119</v>
+        <v>1386.741658428251</v>
       </c>
       <c r="Q36" t="n">
         <v>1897.482859981877</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3157.912653043409</v>
+        <v>875.8480653304418</v>
       </c>
       <c r="C37" t="n">
-        <v>2985.940089922325</v>
+        <v>703.8755022093578</v>
       </c>
       <c r="D37" t="n">
-        <v>2822.623317049095</v>
+        <v>540.5587293361285</v>
       </c>
       <c r="E37" t="n">
-        <v>2656.415111201949</v>
+        <v>374.350523488982</v>
       </c>
       <c r="F37" t="n">
-        <v>2576.616597478509</v>
+        <v>374.350523488982</v>
       </c>
       <c r="G37" t="n">
-        <v>2576.616597478509</v>
+        <v>208.405796067221</v>
       </c>
       <c r="H37" t="n">
-        <v>2576.616597478509</v>
+        <v>191.586897462448</v>
       </c>
       <c r="I37" t="n">
-        <v>2576.616597478509</v>
+        <v>101.2083062526757</v>
       </c>
       <c r="J37" t="n">
-        <v>2655.744152145314</v>
+        <v>180.3358609194811</v>
       </c>
       <c r="K37" t="n">
-        <v>2917.826719782556</v>
+        <v>442.4184285567229</v>
       </c>
       <c r="L37" t="n">
-        <v>3318.014156962672</v>
+        <v>842.6058657368394</v>
       </c>
       <c r="M37" t="n">
-        <v>3757.171335827814</v>
+        <v>1281.763044601981</v>
       </c>
       <c r="N37" t="n">
-        <v>4181.493578311036</v>
+        <v>1706.085287085203</v>
       </c>
       <c r="O37" t="n">
-        <v>4580.177467403591</v>
+        <v>2104.769176177758</v>
       </c>
       <c r="P37" t="n">
-        <v>4907.789455022159</v>
+        <v>2432.381163796326</v>
       </c>
       <c r="Q37" t="n">
-        <v>5060.415312633787</v>
+        <v>2585.007021407954</v>
       </c>
       <c r="R37" t="n">
-        <v>5060.415312633787</v>
+        <v>2552.007956610563</v>
       </c>
       <c r="S37" t="n">
-        <v>4895.721796593296</v>
+        <v>2387.314440570072</v>
       </c>
       <c r="T37" t="n">
-        <v>4653.716574941771</v>
+        <v>2145.309218918547</v>
       </c>
       <c r="U37" t="n">
-        <v>4373.549157839385</v>
+        <v>1865.141801816161</v>
       </c>
       <c r="V37" t="n">
-        <v>4091.837690447414</v>
+        <v>1583.430334424189</v>
       </c>
       <c r="W37" t="n">
-        <v>3816.985286619927</v>
+        <v>1308.577930596702</v>
       </c>
       <c r="X37" t="n">
-        <v>3574.421390065732</v>
+        <v>1066.014034042508</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.078621755474</v>
+        <v>1066.014034042508</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2078.045399096684</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.752778281685</v>
+        <v>1654.752778281684</v>
       </c>
       <c r="E38" t="n">
-        <v>1228.775838429542</v>
+        <v>1228.775838429541</v>
       </c>
       <c r="F38" t="n">
         <v>803.6516566189412</v>
       </c>
       <c r="G38" t="n">
-        <v>400.0086848186928</v>
+        <v>400.0086848186929</v>
       </c>
       <c r="H38" t="n">
         <v>109.2691442554942</v>
@@ -7174,25 +7174,25 @@
         <v>101.2083062526757</v>
       </c>
       <c r="J38" t="n">
-        <v>129.9866783714773</v>
+        <v>521.7158970791035</v>
       </c>
       <c r="K38" t="n">
-        <v>733.9769143647172</v>
+        <v>1324.007488839136</v>
       </c>
       <c r="L38" t="n">
-        <v>1771.264299421591</v>
+        <v>2361.294873896009</v>
       </c>
       <c r="M38" t="n">
-        <v>2895.345495551544</v>
+        <v>3416.654473281611</v>
       </c>
       <c r="N38" t="n">
-        <v>3993.330058623476</v>
+        <v>3501.481151260741</v>
       </c>
       <c r="O38" t="n">
-        <v>4953.424205198343</v>
+        <v>4461.575297835608</v>
       </c>
       <c r="P38" t="n">
-        <v>5014.331332753553</v>
+        <v>4522.482425390818</v>
       </c>
       <c r="Q38" t="n">
         <v>5052.241977685992</v>
@@ -7213,13 +7213,13 @@
         <v>4138.24311195193</v>
       </c>
       <c r="W38" t="n">
-        <v>3741.851762252277</v>
+        <v>3741.851762252276</v>
       </c>
       <c r="X38" t="n">
         <v>3330.131763420024</v>
       </c>
       <c r="Y38" t="n">
-        <v>2924.794493374915</v>
+        <v>2924.794493374914</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>101.2083062526757</v>
       </c>
       <c r="I39" t="n">
-        <v>101.2083062526757</v>
+        <v>121.2228587398468</v>
       </c>
       <c r="J39" t="n">
-        <v>115.2906074045366</v>
+        <v>427.4076523612987</v>
       </c>
       <c r="K39" t="n">
-        <v>152.0596620867936</v>
+        <v>969.5963715135799</v>
       </c>
       <c r="L39" t="n">
-        <v>209.0276066279809</v>
+        <v>1026.564316054767</v>
       </c>
       <c r="M39" t="n">
-        <v>775.1154807676926</v>
+        <v>1096.188711407973</v>
       </c>
       <c r="N39" t="n">
-        <v>848.9240314908524</v>
+        <v>1169.997262131133</v>
       </c>
       <c r="O39" t="n">
-        <v>1825.255167848405</v>
+        <v>1233.906949652214</v>
       </c>
       <c r="P39" t="n">
-        <v>1873.406703197119</v>
+        <v>1282.058485000928</v>
       </c>
       <c r="Q39" t="n">
-        <v>1897.482859981877</v>
+        <v>1792.799686554554</v>
       </c>
       <c r="R39" t="n">
         <v>1897.482859981877</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>940.5123497413323</v>
+        <v>839.6712657322496</v>
       </c>
       <c r="C40" t="n">
-        <v>768.5397866202483</v>
+        <v>833.9938011386661</v>
       </c>
       <c r="D40" t="n">
-        <v>605.223013747019</v>
+        <v>670.6770282654368</v>
       </c>
       <c r="E40" t="n">
-        <v>439.0148078998764</v>
+        <v>504.4688224182903</v>
       </c>
       <c r="F40" t="n">
-        <v>267.1530336744368</v>
+        <v>332.6070481928507</v>
       </c>
       <c r="G40" t="n">
-        <v>101.2083062526757</v>
+        <v>332.6070481928507</v>
       </c>
       <c r="H40" t="n">
-        <v>101.2083062526757</v>
+        <v>191.586897462448</v>
       </c>
       <c r="I40" t="n">
         <v>101.2083062526757</v>
@@ -7356,28 +7356,28 @@
         <v>2585.007021407954</v>
       </c>
       <c r="R40" t="n">
-        <v>2585.007021407954</v>
+        <v>2552.007956610563</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.313505367463</v>
+        <v>2387.314440570072</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.313505367463</v>
+        <v>2145.309218918547</v>
       </c>
       <c r="U40" t="n">
-        <v>2140.146088265076</v>
+        <v>1865.141801816161</v>
       </c>
       <c r="V40" t="n">
-        <v>1858.434620873105</v>
+        <v>1583.430334424189</v>
       </c>
       <c r="W40" t="n">
-        <v>1583.582217045618</v>
+        <v>1308.577930596702</v>
       </c>
       <c r="X40" t="n">
-        <v>1357.021086763656</v>
+        <v>1066.014034042508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.678318453398</v>
+        <v>839.6712657322496</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1702.920121728542</v>
+        <v>1256.582208644035</v>
       </c>
       <c r="C41" t="n">
-        <v>1276.019391741843</v>
+        <v>829.6814786573354</v>
       </c>
       <c r="D41" t="n">
-        <v>1276.019391741843</v>
+        <v>475.8139515076463</v>
       </c>
       <c r="E41" t="n">
-        <v>850.0424518897001</v>
+        <v>475.8139515076463</v>
       </c>
       <c r="F41" t="n">
-        <v>424.9182700791004</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="G41" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="H41" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="I41" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="J41" t="n">
-        <v>79.46814181584804</v>
+        <v>471.1973605234742</v>
       </c>
       <c r="K41" t="n">
-        <v>130.8444708135201</v>
+        <v>522.5736895211462</v>
       </c>
       <c r="L41" t="n">
-        <v>200.5778862428204</v>
+        <v>592.3071049504465</v>
       </c>
       <c r="M41" t="n">
-        <v>664.0513509458651</v>
+        <v>675.0452493909033</v>
       </c>
       <c r="N41" t="n">
-        <v>1291.337250946816</v>
+        <v>759.871927370034</v>
       </c>
       <c r="O41" t="n">
-        <v>1369.269697608406</v>
+        <v>1369.269697608407</v>
       </c>
       <c r="P41" t="n">
-        <v>1996.555597609356</v>
+        <v>1996.555597609358</v>
       </c>
       <c r="Q41" t="n">
-        <v>2526.315149904531</v>
+        <v>2526.315149904532</v>
       </c>
       <c r="R41" t="n">
-        <v>2534.488484852325</v>
+        <v>2534.488484852327</v>
       </c>
       <c r="S41" t="n">
-        <v>2534.488484852325</v>
+        <v>2534.488484852327</v>
       </c>
       <c r="T41" t="n">
-        <v>2534.488484852325</v>
+        <v>2316.610050543562</v>
       </c>
       <c r="U41" t="n">
-        <v>2534.488484852325</v>
+        <v>2058.310828388798</v>
       </c>
       <c r="V41" t="n">
-        <v>2534.488484852325</v>
+        <v>2058.310828388798</v>
       </c>
       <c r="W41" t="n">
-        <v>2534.488484852325</v>
+        <v>1661.919478689145</v>
       </c>
       <c r="X41" t="n">
-        <v>2122.768486020072</v>
+        <v>1661.919478689145</v>
       </c>
       <c r="Y41" t="n">
-        <v>2122.768486020072</v>
+        <v>1256.582208644035</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>100.4688639576898</v>
       </c>
       <c r="H42" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="I42" t="n">
-        <v>50.68976969704651</v>
+        <v>70.70432218421755</v>
       </c>
       <c r="J42" t="n">
-        <v>356.8745633184985</v>
+        <v>376.8891158056695</v>
       </c>
       <c r="K42" t="n">
-        <v>393.6436180007554</v>
+        <v>1004.17501580662</v>
       </c>
       <c r="L42" t="n">
-        <v>1020.929518001706</v>
+        <v>1061.142960347808</v>
       </c>
       <c r="M42" t="n">
-        <v>1637.018393048535</v>
+        <v>1130.767355701013</v>
       </c>
       <c r="N42" t="n">
-        <v>1710.826943771695</v>
+        <v>1204.575906424173</v>
       </c>
       <c r="O42" t="n">
-        <v>1774.736631292776</v>
+        <v>1268.485593945254</v>
       </c>
       <c r="P42" t="n">
-        <v>1822.88816664149</v>
+        <v>1316.637129293968</v>
       </c>
       <c r="Q42" t="n">
-        <v>1846.964323426248</v>
+        <v>1742.281149998924</v>
       </c>
       <c r="R42" t="n">
         <v>1846.964323426248</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.9867604645549</v>
+        <v>889.9938131857069</v>
       </c>
       <c r="C43" t="n">
-        <v>427.0141973434709</v>
+        <v>718.0212500646229</v>
       </c>
       <c r="D43" t="n">
-        <v>427.0141973434709</v>
+        <v>554.7044771913936</v>
       </c>
       <c r="E43" t="n">
-        <v>427.0141973434709</v>
+        <v>388.4962713442471</v>
       </c>
       <c r="F43" t="n">
-        <v>427.0141973434709</v>
+        <v>216.6344971188075</v>
       </c>
       <c r="G43" t="n">
-        <v>282.0885116372215</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="H43" t="n">
-        <v>141.0683609068187</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="I43" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="J43" t="n">
         <v>129.8173243638519</v>
@@ -7593,28 +7593,28 @@
         <v>2534.488484852325</v>
       </c>
       <c r="R43" t="n">
-        <v>2501.489420054934</v>
+        <v>2534.488484852325</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.795904014443</v>
+        <v>2369.794968811834</v>
       </c>
       <c r="T43" t="n">
-        <v>2094.790682362918</v>
+        <v>2127.789747160309</v>
       </c>
       <c r="U43" t="n">
-        <v>1814.623265260532</v>
+        <v>1847.622330057922</v>
       </c>
       <c r="V43" t="n">
-        <v>1532.91179786856</v>
+        <v>1565.910862665951</v>
       </c>
       <c r="W43" t="n">
-        <v>1258.059394041073</v>
+        <v>1306.50255020803</v>
       </c>
       <c r="X43" t="n">
-        <v>1015.495497486878</v>
+        <v>1306.50255020803</v>
       </c>
       <c r="Y43" t="n">
-        <v>789.1527291766205</v>
+        <v>1080.159781897773</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1751.984242161488</v>
+        <v>768.330040246945</v>
       </c>
       <c r="C44" t="n">
-        <v>1325.083512174788</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="D44" t="n">
-        <v>901.7908913597887</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="E44" t="n">
-        <v>475.8139515076463</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="F44" t="n">
-        <v>50.68976969704651</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="G44" t="n">
-        <v>50.68976969704651</v>
+        <v>341.4293102602451</v>
       </c>
       <c r="H44" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="I44" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="J44" t="n">
-        <v>471.1973605234742</v>
+        <v>283.3407426933168</v>
       </c>
       <c r="K44" t="n">
-        <v>522.5736895211462</v>
+        <v>910.6266426942676</v>
       </c>
       <c r="L44" t="n">
-        <v>592.3071049504465</v>
+        <v>1537.912542695218</v>
       </c>
       <c r="M44" t="n">
-        <v>675.0452493909033</v>
+        <v>1620.650687135675</v>
       </c>
       <c r="N44" t="n">
-        <v>759.871927370034</v>
+        <v>1705.477365114806</v>
       </c>
       <c r="O44" t="n">
-        <v>1369.269697608406</v>
+        <v>1783.409811776396</v>
       </c>
       <c r="P44" t="n">
-        <v>1996.555597609356</v>
+        <v>1844.316939331607</v>
       </c>
       <c r="Q44" t="n">
-        <v>2526.315149904531</v>
+        <v>2374.076491626781</v>
       </c>
       <c r="R44" t="n">
-        <v>2534.488484852325</v>
+        <v>2534.488484852327</v>
       </c>
       <c r="S44" t="n">
-        <v>2534.488484852325</v>
+        <v>2445.983355507749</v>
       </c>
       <c r="T44" t="n">
-        <v>2534.488484852325</v>
+        <v>2228.104921198984</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.488484852325</v>
+        <v>2228.104921198984</v>
       </c>
       <c r="V44" t="n">
-        <v>2534.488484852325</v>
+        <v>1989.907024283238</v>
       </c>
       <c r="W44" t="n">
-        <v>2534.488484852325</v>
+        <v>1593.515674583585</v>
       </c>
       <c r="X44" t="n">
-        <v>2122.768486020072</v>
+        <v>1593.515674583585</v>
       </c>
       <c r="Y44" t="n">
-        <v>1751.984242161488</v>
+        <v>1188.178404538475</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>100.4688639576898</v>
       </c>
       <c r="H45" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="I45" t="n">
-        <v>50.68976969704651</v>
+        <v>70.70432218421755</v>
       </c>
       <c r="J45" t="n">
-        <v>64.77207084890739</v>
+        <v>376.8891158056695</v>
       </c>
       <c r="K45" t="n">
-        <v>101.5411255311643</v>
+        <v>1004.17501580662</v>
       </c>
       <c r="L45" t="n">
-        <v>158.5090700723517</v>
+        <v>1061.142960347808</v>
       </c>
       <c r="M45" t="n">
-        <v>785.7949700733022</v>
+        <v>1130.767355701013</v>
       </c>
       <c r="N45" t="n">
-        <v>859.6035207964621</v>
+        <v>1204.575906424173</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.889420797413</v>
+        <v>1268.485593945254</v>
       </c>
       <c r="P45" t="n">
-        <v>1822.88816664149</v>
+        <v>1316.637129293968</v>
       </c>
       <c r="Q45" t="n">
-        <v>1846.964323426248</v>
+        <v>1827.378330847594</v>
       </c>
       <c r="R45" t="n">
         <v>1846.964323426248</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>625.9228489837451</v>
+        <v>873.8391642920419</v>
       </c>
       <c r="C46" t="n">
-        <v>453.9502858626611</v>
+        <v>701.8666011709579</v>
       </c>
       <c r="D46" t="n">
-        <v>453.9502858626611</v>
+        <v>620.1584917098075</v>
       </c>
       <c r="E46" t="n">
         <v>453.9502858626611</v>
@@ -7803,7 +7803,7 @@
         <v>141.0683609068187</v>
       </c>
       <c r="I46" t="n">
-        <v>50.68976969704651</v>
+        <v>50.68976969704653</v>
       </c>
       <c r="J46" t="n">
         <v>129.8173243638519</v>
@@ -7845,13 +7845,13 @@
         <v>1532.91179786856</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.995482560264</v>
+        <v>1532.91179786856</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.431586006069</v>
+        <v>1290.347901314366</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.0888176958108</v>
+        <v>1064.005133004108</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
         <v>498.7908651163583</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>481.0403493565598</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>483.7991395936675</v>
@@ -8066,22 +8066,22 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>183.8904958969891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>374.1586769883665</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1202152123216</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844537</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8227,10 +8227,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>457.2459600376384</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6396787202251</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>375.1348740725161</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>335.7669652041454</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8391,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>456.7228602710902</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>107.8670228313362</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,7 +8546,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P9" t="n">
         <v>483.1707469651629</v>
@@ -8613,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>333.8872799964593</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>563.1843278501514</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>547.9386081028483</v>
       </c>
       <c r="O11" t="n">
-        <v>554.9024781205655</v>
+        <v>554.9024781205658</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>401.7784236050179</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>209.0962743645674</v>
       </c>
       <c r="K12" t="n">
-        <v>596.481661938074</v>
+        <v>596.4816619380744</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>531.5814038734273</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>500.7997924094979</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>550.0482379398924</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>383.0572376757876</v>
+        <v>554.9024781205658</v>
       </c>
       <c r="P14" t="n">
-        <v>572.099770147212</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>3.4775286436776</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4816619380741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>563.2944491391358</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>290.7547580761249</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>569.0668812927973</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7801281389721773</v>
+        <v>40.78067871051273</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>696.2593126856444</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>75.66051446195463</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>3.4775286436776</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>63.76882719607694</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>677.9132098906052</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>0.7801281389721773</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>558.1958656520887</v>
+        <v>563.7779538757069</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>186.7292816932078</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6.401909847586118</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>558.1958656520887</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>75.66051446195463</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>3.4775286436776</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>555.3496804979638</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>403.4738319825492</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>285.6970524346963</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>75.66051446195647</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>3.4775286436776</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>186.3323565887183</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>403.4738319825493</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>193.9509462462115</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>593.9346361396933</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>186.7292816932078</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>301.4549325441427</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>29.59595338596756</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>295.0819448877353</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>3.4775286436776</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>301.4549325441429</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>403.4738319825493</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>558.1958656520887</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>777.0228422836174</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4775286436776</v>
+        <v>21.11108654385833</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>301.4549325441429</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>0.7801281389721773</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>558.1958656520887</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>982.4459140860043</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>510.5249136060851</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>501.478261400511</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>384.5811315783715</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>547.9386081028483</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>536.8336601785686</v>
       </c>
       <c r="P41" t="n">
-        <v>572.0997701472122</v>
+        <v>572.0997701472127</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4816619380746</v>
       </c>
       <c r="L42" t="n">
-        <v>576.0787428886497</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>551.9843229228519</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>405.6241049698973</v>
       </c>
       <c r="R42" t="n">
-        <v>0.7801281389721773</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>205.9319200782512</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>581.7268393972513</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>563.1843278501519</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>536.8336601785675</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>572.0997701472122</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4775286436776</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4816619380746</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>563.2944491391361</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>569.0668812927977</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>290.7547580761242</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7801281389721773</v>
+        <v>20.563959026501</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>399.6065420822458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>287.8321451575666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>7.980229622790294</v>
@@ -23311,19 +23311,19 @@
         <v>87.6200780511319</v>
       </c>
       <c r="T11" t="n">
-        <v>215.6996499656774</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7162299332158</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>18.36919274444102</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.04382191116105</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.47480529767448</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>158.2829336321253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>15.36328176493822</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>324.3689739078538</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>399.6065420822458</v>
       </c>
       <c r="H14" t="n">
-        <v>287.8321451575666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>7.980229622790294</v>
@@ -23548,10 +23548,10 @@
         <v>87.6200780511319</v>
       </c>
       <c r="T14" t="n">
-        <v>215.6996499656774</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>229.3350331326675</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.7450258639328</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>158.2829336321249</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.47480529767448</v>
+        <v>72.16901291319647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>32.66907414941711</v>
       </c>
       <c r="S19" t="n">
-        <v>163.0465808800861</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>92.38132716443792</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.3598739815602</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.2852801475434</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>180.6174331946548</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>85.17507055465053</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>32.66907414941711</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>15.289650455871</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.59703819721071</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.2852801475434</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>89.47480529767448</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>163.0465808800861</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.0504013138549</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.28965045587086</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.6099492230987</v>
+        <v>68.80812833445043</v>
       </c>
       <c r="I31" t="n">
         <v>89.47480529767448</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>93.74430290002668</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>32.66907414941711</v>
       </c>
       <c r="S34" t="n">
-        <v>163.0465808800861</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.38132716443792</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>91.14262789697912</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.2852801475434</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.6099492230987</v>
+        <v>122.9592396043734</v>
       </c>
       <c r="I37" t="n">
-        <v>89.47480529767448</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>164.6321475422255</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.2852801475434</v>
       </c>
       <c r="H40" t="n">
-        <v>139.6099492230987</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>89.47480529767448</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.66907414941711</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.58516943501</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>15.84273860951029</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>68.73084272865748</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.12032670401248</v>
+        <v>399.6065420822458</v>
       </c>
       <c r="H41" t="n">
         <v>287.8321451575666</v>
@@ -25681,22 +25681,22 @@
         <v>87.6200780511319</v>
       </c>
       <c r="T41" t="n">
-        <v>215.6996499656774</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7162299332158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>20.80885129835647</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.6099492230987</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>89.47480529767448</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>32.66907414941711</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.28965045587051</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>399.6065420822458</v>
       </c>
       <c r="H44" t="n">
-        <v>287.8321451575666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>7.980229622790294</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.6200780511319</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.6996499656774</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7162299332158</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>118.0986027784245</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.20749592466024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>80.79257677795816</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>26.66672763399828</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>446640.4818557779</v>
+        <v>446640.481855778</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>446640.4818557779</v>
+        <v>446640.481855778</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691371.7450715314</v>
+        <v>691371.7450715312</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691371.7450715315</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691371.7450715314</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>691371.7450715315</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691371.7450715314</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691371.7450715314</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691371.7450715315</v>
+        <v>691371.7450715313</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>422270.934308093</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
         <v>271844.7177274809</v>
       </c>
       <c r="F2" t="n">
-        <v>271844.717727481</v>
+        <v>271844.7177274809</v>
       </c>
       <c r="G2" t="n">
-        <v>413271.9720892573</v>
+        <v>413271.9720892571</v>
       </c>
       <c r="H2" t="n">
-        <v>413271.972089257</v>
+        <v>413271.9720892571</v>
       </c>
       <c r="I2" t="n">
-        <v>413271.9720892571</v>
+        <v>413271.9720892567</v>
       </c>
       <c r="J2" t="n">
         <v>413271.9720892567</v>
       </c>
       <c r="K2" t="n">
-        <v>413271.9720892571</v>
+        <v>413271.9720892569</v>
       </c>
       <c r="L2" t="n">
-        <v>413271.972089257</v>
+        <v>413271.9720892569</v>
       </c>
       <c r="M2" t="n">
-        <v>413271.972089257</v>
+        <v>413271.9720892567</v>
       </c>
       <c r="N2" t="n">
-        <v>413271.972089257</v>
+        <v>413271.9720892569</v>
       </c>
       <c r="O2" t="n">
-        <v>271844.717727481</v>
+        <v>271844.7177274813</v>
       </c>
       <c r="P2" t="n">
-        <v>271844.717727481</v>
+        <v>271844.7177274811</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173079.6636481205</v>
+        <v>173079.6636481204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>42918.46497968636</v>
+        <v>42918.46497968637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>230061.7875075233</v>
       </c>
       <c r="D4" t="n">
-        <v>230061.7875075233</v>
+        <v>230061.7875075232</v>
       </c>
       <c r="E4" t="n">
-        <v>62813.57288741014</v>
+        <v>62813.57288741017</v>
       </c>
       <c r="F4" t="n">
-        <v>62813.57288741015</v>
+        <v>62813.57288741016</v>
       </c>
       <c r="G4" t="n">
         <v>107894.5084892556</v>
@@ -26447,7 +26447,7 @@
         <v>107894.5084892556</v>
       </c>
       <c r="L4" t="n">
-        <v>107894.5084892557</v>
+        <v>107894.5084892556</v>
       </c>
       <c r="M4" t="n">
         <v>107894.5084892556</v>
@@ -26456,10 +26456,10 @@
         <v>107894.5084892556</v>
       </c>
       <c r="O4" t="n">
-        <v>62813.57288741016</v>
+        <v>62813.57288741021</v>
       </c>
       <c r="P4" t="n">
-        <v>62813.57288741018</v>
+        <v>62813.57288741019</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>42261.20307320626</v>
+        <v>42261.20307320627</v>
       </c>
       <c r="F5" t="n">
         <v>42261.20307320626</v>
       </c>
       <c r="G5" t="n">
-        <v>80655.29085548449</v>
+        <v>80655.29085548446</v>
       </c>
       <c r="H5" t="n">
-        <v>80655.29085548449</v>
+        <v>80655.29085548446</v>
       </c>
       <c r="I5" t="n">
-        <v>80655.29085548449</v>
+        <v>80655.29085548446</v>
       </c>
       <c r="J5" t="n">
         <v>80655.29085548449</v>
@@ -26508,10 +26508,10 @@
         <v>80655.29085548449</v>
       </c>
       <c r="O5" t="n">
-        <v>42261.20307320627</v>
+        <v>42261.20307320629</v>
       </c>
       <c r="P5" t="n">
-        <v>42261.20307320627</v>
+        <v>42261.20307320629</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-24097.28808777907</v>
       </c>
       <c r="C6" t="n">
-        <v>130528.4325303418</v>
+        <v>130528.4325303416</v>
       </c>
       <c r="D6" t="n">
-        <v>130528.4325303414</v>
+        <v>130528.4325303416</v>
       </c>
       <c r="E6" t="n">
-        <v>-22371.97972476872</v>
+        <v>-22890.69081642603</v>
       </c>
       <c r="F6" t="n">
-        <v>166769.9417668646</v>
+        <v>166251.2306752071</v>
       </c>
       <c r="G6" t="n">
-        <v>51642.50909639668</v>
+        <v>51611.47819219377</v>
       </c>
       <c r="H6" t="n">
-        <v>224722.1727445169</v>
+        <v>224691.1418403141</v>
       </c>
       <c r="I6" t="n">
-        <v>224722.172744517</v>
+        <v>224691.1418403138</v>
       </c>
       <c r="J6" t="n">
-        <v>103999.6558017597</v>
+        <v>103968.6248975568</v>
       </c>
       <c r="K6" t="n">
-        <v>224722.172744517</v>
+        <v>224691.1418403139</v>
       </c>
       <c r="L6" t="n">
-        <v>224722.1727445168</v>
+        <v>224691.1418403138</v>
       </c>
       <c r="M6" t="n">
-        <v>181803.7077648305</v>
+        <v>181772.6768606274</v>
       </c>
       <c r="N6" t="n">
-        <v>224722.1727445169</v>
+        <v>224691.1418403139</v>
       </c>
       <c r="O6" t="n">
-        <v>166769.9417668646</v>
+        <v>166251.2306752075</v>
       </c>
       <c r="P6" t="n">
-        <v>166769.9417668645</v>
+        <v>166251.2306752073</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>633.6221212130811</v>
+        <v>633.6221212130813</v>
       </c>
       <c r="F4" t="n">
-        <v>633.6221212130811</v>
+        <v>633.6221212130812</v>
       </c>
       <c r="G4" t="n">
-        <v>1265.103828158447</v>
+        <v>1265.103828158446</v>
       </c>
       <c r="H4" t="n">
-        <v>1265.103828158447</v>
+        <v>1265.103828158446</v>
       </c>
       <c r="I4" t="n">
-        <v>1265.103828158447</v>
+        <v>1265.103828158446</v>
       </c>
       <c r="J4" t="n">
         <v>1265.103828158447</v>
@@ -26828,10 +26828,10 @@
         <v>1265.103828158447</v>
       </c>
       <c r="O4" t="n">
-        <v>633.6221212130813</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="P4" t="n">
-        <v>633.6221212130813</v>
+        <v>633.6221212130816</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.222215452747</v>
+        <v>172.2222154527471</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>631.4817069453654</v>
+        <v>631.4817069453651</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603344</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.222215452747</v>
+        <v>172.2222154527471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>631.4817069453654</v>
+        <v>631.4817069453651</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>247.950619373411</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>160.9601215935666</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27548,7 +27548,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>22.21878171791607</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>41.10763096738177</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>247.9506193734109</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>56.38454581829643</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>60.94504273912005</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>114.3539344059674</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.66693461922404</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>351.2742405590018</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,10 +27864,10 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>135.7191666312989</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>461.3999057603342</v>
@@ -34786,22 +34786,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>160.7937153846612</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>352.3878357835378</v>
+      </c>
+      <c r="Q3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>306.5447753208358</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N6" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O6" t="n">
-        <v>85.46778899800287</v>
       </c>
       <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>313.1915253126596</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35111,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>324.0137127175907</v>
-      </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>85.46778899800287</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P9" t="n">
         <v>461.3999057603342</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>424.7551422489169</v>
+        <v>29.06906274626418</v>
       </c>
       <c r="K11" t="n">
-        <v>385.7825618122897</v>
+        <v>51.89528181583033</v>
       </c>
       <c r="L11" t="n">
-        <v>633.6221212130811</v>
+        <v>70.43779336292965</v>
       </c>
       <c r="M11" t="n">
         <v>83.57388327318874</v>
       </c>
       <c r="N11" t="n">
-        <v>85.68351311023298</v>
+        <v>633.6221212130813</v>
       </c>
       <c r="O11" t="n">
-        <v>633.6221212130811</v>
+        <v>633.6221212130813</v>
       </c>
       <c r="P11" t="n">
-        <v>61.52235106586903</v>
+        <v>463.3007746708869</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R11" t="n">
-        <v>162.0323163894401</v>
+        <v>8.255893886661184</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J12" t="n">
-        <v>309.2775693145979</v>
+        <v>223.3208209826087</v>
       </c>
       <c r="K12" t="n">
-        <v>633.6221212130811</v>
+        <v>633.6221212130813</v>
       </c>
       <c r="L12" t="n">
         <v>57.54337832443166</v>
@@ -35506,13 +35506,13 @@
         <v>64.55523992028367</v>
       </c>
       <c r="P12" t="n">
-        <v>580.2193183670782</v>
+        <v>48.63791449365092</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>51.89528181583033</v>
       </c>
       <c r="L14" t="n">
-        <v>70.43779336292965</v>
+        <v>571.2375857724276</v>
       </c>
       <c r="M14" t="n">
-        <v>83.57388327318874</v>
+        <v>633.6221212130812</v>
       </c>
       <c r="N14" t="n">
         <v>85.68351311023298</v>
       </c>
       <c r="O14" t="n">
-        <v>461.7768807683031</v>
+        <v>633.6221212130812</v>
       </c>
       <c r="P14" t="n">
-        <v>633.6221212130811</v>
+        <v>61.52235106586903</v>
       </c>
       <c r="Q14" t="n">
-        <v>535.1106588840142</v>
+        <v>38.29358073983727</v>
       </c>
       <c r="R14" t="n">
-        <v>162.0323163894401</v>
+        <v>8.255893886661184</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K15" t="n">
-        <v>37.14045927500702</v>
+        <v>633.6221212130812</v>
       </c>
       <c r="L15" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M15" t="n">
-        <v>633.6221212130811</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N15" t="n">
-        <v>365.3088497156803</v>
+        <v>74.55409163955539</v>
       </c>
       <c r="O15" t="n">
-        <v>633.6221212130811</v>
+        <v>64.55523992028367</v>
       </c>
       <c r="P15" t="n">
         <v>48.63791449365092</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>40.00055057154055</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K17" t="n">
-        <v>748.1545945014748</v>
+        <v>810.3955472323559</v>
       </c>
       <c r="L17" t="n">
         <v>1047.765035410984</v>
       </c>
       <c r="M17" t="n">
-        <v>1135.435551646417</v>
+        <v>159.2343977351434</v>
       </c>
       <c r="N17" t="n">
-        <v>1109.075316234276</v>
+        <v>85.68351311023298</v>
       </c>
       <c r="O17" t="n">
-        <v>78.71964309251547</v>
+        <v>969.7920672473397</v>
       </c>
       <c r="P17" t="n">
         <v>814.5313281871383</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R17" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.22454661804129</v>
+        <v>77.99337381411823</v>
       </c>
       <c r="K18" t="n">
         <v>37.14045927500702</v>
       </c>
       <c r="L18" t="n">
-        <v>735.4565882150368</v>
+        <v>925.3097863345261</v>
       </c>
       <c r="M18" t="n">
         <v>70.32767207394525</v>
@@ -35980,10 +35980,10 @@
         <v>64.55523992028367</v>
       </c>
       <c r="P18" t="n">
-        <v>793.8407931111038</v>
+        <v>48.63791449365092</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K20" t="n">
-        <v>610.0911474679191</v>
+        <v>615.6732356915372</v>
       </c>
       <c r="L20" t="n">
         <v>1047.765035410984</v>
       </c>
       <c r="M20" t="n">
-        <v>1135.435551646417</v>
+        <v>83.57388327318874</v>
       </c>
       <c r="N20" t="n">
         <v>1109.075316234276</v>
@@ -36141,10 +36141,10 @@
         <v>61.52235106586903</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R20" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J21" t="n">
-        <v>309.2775693145979</v>
+        <v>200.9538283112491</v>
       </c>
       <c r="K21" t="n">
-        <v>37.14045927500702</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L21" t="n">
         <v>57.54337832443166</v>
@@ -36211,19 +36211,19 @@
         <v>70.32767207394525</v>
       </c>
       <c r="N21" t="n">
-        <v>1196.215247603471</v>
+        <v>74.55409163955539</v>
       </c>
       <c r="O21" t="n">
         <v>64.55523992028367</v>
       </c>
       <c r="P21" t="n">
-        <v>55.03982434123704</v>
+        <v>48.63791449365092</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K23" t="n">
-        <v>610.0911474679191</v>
+        <v>810.3955472323559</v>
       </c>
       <c r="L23" t="n">
         <v>1047.765035410984</v>
       </c>
       <c r="M23" t="n">
-        <v>1135.435551646417</v>
+        <v>159.2343977351434</v>
       </c>
       <c r="N23" t="n">
-        <v>1109.075316234276</v>
+        <v>85.68351311023298</v>
       </c>
       <c r="O23" t="n">
         <v>969.7920672473397</v>
       </c>
       <c r="P23" t="n">
-        <v>61.52235106586903</v>
+        <v>814.5313281871383</v>
       </c>
       <c r="Q23" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R23" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K24" t="n">
-        <v>37.14045927500702</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L24" t="n">
-        <v>925.3097863345261</v>
+        <v>57.54337832443166</v>
       </c>
       <c r="M24" t="n">
         <v>70.32767207394525</v>
@@ -36451,16 +36451,16 @@
         <v>74.55409163955539</v>
       </c>
       <c r="O24" t="n">
-        <v>619.9049204182475</v>
+        <v>64.55523992028367</v>
       </c>
       <c r="P24" t="n">
-        <v>48.63791449365092</v>
+        <v>452.1117464762001</v>
       </c>
       <c r="Q24" t="n">
         <v>24.31935028763388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K26" t="n">
-        <v>51.89528181583033</v>
+        <v>810.3955472323559</v>
       </c>
       <c r="L26" t="n">
-        <v>356.134845797626</v>
+        <v>1047.765035410984</v>
       </c>
       <c r="M26" t="n">
-        <v>1135.435551646417</v>
+        <v>83.57388327318874</v>
       </c>
       <c r="N26" t="n">
-        <v>1109.075316234276</v>
+        <v>161.3440275721894</v>
       </c>
       <c r="O26" t="n">
         <v>969.7920672473397</v>
@@ -36618,7 +36618,7 @@
         <v>535.1106588840142</v>
       </c>
       <c r="R26" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K27" t="n">
-        <v>223.4728158637253</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L27" t="n">
         <v>57.54337832443166</v>
@@ -36691,13 +36691,13 @@
         <v>64.55523992028367</v>
       </c>
       <c r="P27" t="n">
-        <v>793.8407931111038</v>
+        <v>48.63791449365092</v>
       </c>
       <c r="Q27" t="n">
-        <v>515.9002035895207</v>
+        <v>427.7931822701831</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.0200089924756</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K29" t="n">
         <v>810.3955472323559</v>
@@ -36840,19 +36840,19 @@
         <v>1047.765035410984</v>
       </c>
       <c r="M29" t="n">
-        <v>1135.435551646417</v>
+        <v>83.57388327318874</v>
       </c>
       <c r="N29" t="n">
         <v>1109.075316234276</v>
       </c>
       <c r="O29" t="n">
-        <v>78.71964309251547</v>
+        <v>672.6542792322089</v>
       </c>
       <c r="P29" t="n">
-        <v>61.52235106586903</v>
+        <v>814.5313281871383</v>
       </c>
       <c r="Q29" t="n">
-        <v>535.1106588840142</v>
+        <v>38.29358073983727</v>
       </c>
       <c r="R29" t="n">
         <v>8.255893886661184</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J30" t="n">
-        <v>14.22454661804129</v>
+        <v>200.9538283112491</v>
       </c>
       <c r="K30" t="n">
-        <v>37.14045927500702</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L30" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M30" t="n">
-        <v>371.7826046180879</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N30" t="n">
-        <v>1196.215247603471</v>
+        <v>74.55409163955539</v>
       </c>
       <c r="O30" t="n">
         <v>64.55523992028367</v>
@@ -36931,10 +36931,10 @@
         <v>48.63791449365092</v>
       </c>
       <c r="Q30" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>810.3955472323559</v>
       </c>
       <c r="L32" t="n">
-        <v>1047.765035410984</v>
+        <v>100.0337467488972</v>
       </c>
       <c r="M32" t="n">
-        <v>1135.435551646417</v>
+        <v>83.57388327318874</v>
       </c>
       <c r="N32" t="n">
         <v>1109.075316234276</v>
       </c>
       <c r="O32" t="n">
-        <v>373.8015879802508</v>
+        <v>969.7920672473397</v>
       </c>
       <c r="P32" t="n">
-        <v>61.52235106586903</v>
+        <v>814.5313281871383</v>
       </c>
       <c r="Q32" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R32" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K33" t="n">
-        <v>37.14045927500702</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L33" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M33" t="n">
-        <v>371.7826046180882</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N33" t="n">
-        <v>1196.215247603471</v>
+        <v>74.55409163955539</v>
       </c>
       <c r="O33" t="n">
         <v>64.55523992028367</v>
@@ -37168,10 +37168,10 @@
         <v>48.63791449365092</v>
       </c>
       <c r="Q33" t="n">
-        <v>24.31935028763388</v>
+        <v>427.7931822701831</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>29.06906274626418</v>
       </c>
       <c r="K35" t="n">
-        <v>610.0911474679191</v>
+        <v>810.3955472323559</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.765035410984</v>
+        <v>847.460635646547</v>
       </c>
       <c r="M35" t="n">
         <v>1135.435551646417</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>17.63355790018073</v>
       </c>
       <c r="J36" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K36" t="n">
-        <v>37.14045927500702</v>
+        <v>655.9891138844409</v>
       </c>
       <c r="L36" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M36" t="n">
-        <v>371.7826046180882</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N36" t="n">
-        <v>1196.215247603471</v>
+        <v>74.55409163955539</v>
       </c>
       <c r="O36" t="n">
         <v>64.55523992028367</v>
@@ -37405,7 +37405,7 @@
         <v>48.63791449365092</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K38" t="n">
-        <v>610.0911474679191</v>
+        <v>810.3955472323559</v>
       </c>
       <c r="L38" t="n">
         <v>1047.765035410984</v>
       </c>
       <c r="M38" t="n">
-        <v>1135.435551646417</v>
+        <v>1066.019797359193</v>
       </c>
       <c r="N38" t="n">
-        <v>1109.075316234276</v>
+        <v>85.68351311023298</v>
       </c>
       <c r="O38" t="n">
         <v>969.7920672473397</v>
@@ -37563,7 +37563,7 @@
         <v>61.52235106586903</v>
       </c>
       <c r="Q38" t="n">
-        <v>38.29358073983727</v>
+        <v>535.1106588840142</v>
       </c>
       <c r="R38" t="n">
         <v>8.255893886661184</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J39" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K39" t="n">
-        <v>37.14045927500702</v>
+        <v>547.6653728810921</v>
       </c>
       <c r="L39" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M39" t="n">
-        <v>571.8059334744562</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N39" t="n">
         <v>74.55409163955539</v>
       </c>
       <c r="O39" t="n">
-        <v>986.1930670278308</v>
+        <v>64.55523992028367</v>
       </c>
       <c r="P39" t="n">
         <v>48.63791449365092</v>
       </c>
       <c r="Q39" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.06906274626418</v>
+        <v>424.7551422489169</v>
       </c>
       <c r="K41" t="n">
         <v>51.89528181583033</v>
@@ -37788,16 +37788,16 @@
         <v>70.43779336292965</v>
       </c>
       <c r="M41" t="n">
-        <v>468.1550148515603</v>
+        <v>83.57388327318874</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6221212130813</v>
+        <v>85.68351311023298</v>
       </c>
       <c r="O41" t="n">
-        <v>78.71964309251547</v>
+        <v>615.553303271084</v>
       </c>
       <c r="P41" t="n">
-        <v>633.6221212130813</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="Q41" t="n">
         <v>535.1106588840142</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J42" t="n">
         <v>309.2775693145979</v>
       </c>
       <c r="K42" t="n">
-        <v>37.14045927500702</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="L42" t="n">
-        <v>633.6221212130813</v>
+        <v>57.54337832443166</v>
       </c>
       <c r="M42" t="n">
-        <v>622.3119949967971</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N42" t="n">
         <v>74.55409163955539</v>
@@ -37879,10 +37879,10 @@
         <v>48.63791449365092</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.31935028763388</v>
+        <v>429.9434552575312</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>105.7405792195185</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.7551422489169</v>
+        <v>235.0009828245154</v>
       </c>
       <c r="K44" t="n">
-        <v>51.89528181583033</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="L44" t="n">
-        <v>70.43779336292965</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="M44" t="n">
         <v>83.57388327318874</v>
@@ -38031,16 +38031,16 @@
         <v>85.68351311023298</v>
       </c>
       <c r="O44" t="n">
-        <v>615.5533032710829</v>
+        <v>78.71964309251547</v>
       </c>
       <c r="P44" t="n">
-        <v>633.6221212130813</v>
+        <v>61.52235106586903</v>
       </c>
       <c r="Q44" t="n">
         <v>535.1106588840142</v>
       </c>
       <c r="R44" t="n">
-        <v>8.255893886661184</v>
+        <v>162.0323163894401</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.21671968401113</v>
       </c>
       <c r="J45" t="n">
-        <v>14.22454661804129</v>
+        <v>309.2775693145979</v>
       </c>
       <c r="K45" t="n">
-        <v>37.14045927500702</v>
+        <v>633.6221212130816</v>
       </c>
       <c r="L45" t="n">
         <v>57.54337832443166</v>
       </c>
       <c r="M45" t="n">
-        <v>633.6221212130813</v>
+        <v>70.32767207394525</v>
       </c>
       <c r="N45" t="n">
         <v>74.55409163955539</v>
       </c>
       <c r="O45" t="n">
-        <v>633.6221212130813</v>
+        <v>64.55523992028367</v>
       </c>
       <c r="P45" t="n">
-        <v>339.3926725697751</v>
+        <v>48.63791449365092</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.31935028763388</v>
+        <v>515.9002035895207</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.78383088752882</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
